--- a/biology/Médecine/Os_occipital/Os_occipital.xlsx
+++ b/biology/Médecine/Os_occipital/Os_occipital.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'os occipital (ou l'occiput) est un os en forme de losange, taillé dans un segment de sphère, et formant la majeur partie du pôle de l'ovoïde crânienne. Il est percé d'un orifice, le foramen magnum, plus large en arrière qu'en avant et destiné au passage de l'axe cérébro-spinal, de ses enveloppes et de vaisseaux. Situé à l'arrière du crâne, il s'articule avec les os pariétaux, les os temporaux, l'os sphénoïde et l'os atlas.
 Il se compose :
@@ -515,7 +527,9 @@
           <t>Face externe</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>On décrit sur la face externe :
 l'écaille, qui présente plusieurs lignes nucales :
@@ -558,7 +572,9 @@
           <t>Face interne</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>On décrit sur la face interne :
 l'écaille présente la protubérance occipitale interne d'où partent :
@@ -597,7 +613,9 @@
           <t>Bords</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les bords de l'occipital sont latéraux, et divisés par les angles latéraux en bords antéro-externe et supéro-externe. Il faut y ajouter un bord antérieur. En effet, l'angle antérieur de l'occipital est large et épais; c'est même plus qu'un bord, c'est une véritable face antérieure, qui est soudée à la même face postérieure du corps du sphénoïde.
 Le bord antéro-externe comprend trois tiers : le tiers antérieur, rugueux, s'unit à la pyramide rocheuse du temporal. La face endocrânienne de la suture de ces os est creusée d'une gouttière pétro-occipitale. Le tiers postérieur est rugueux également et s'articule avec le mastoïde. Le tiers moyen enfin est libre et par sa jonction avec une portion semblable de la pyramide pétreuse forme le trou déchiré postérieur. A l’extrémité postérieure du foramen magnum, le bord de l'occipital se relève par l'apophyse jugulaire. Elle est contournée par la gouttière à concavité externe qu'y présente la face endocrânienne : cette gouttière aboutit en avant, en s'excavant, au trou déchiré postérieur. Quant à ce foramen, deux épines jugulaires, l'une de l'occipital, l'autre de la pyramide pétreuse, unies par un trousseau fibreux, le subdivisent en deux compartiments antérieur et postérieur.
@@ -630,7 +648,9 @@
           <t>Contenu et rapport de l'os occipital</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">L'os occipital s'articule avec les deux os pariétaux et l'écaille des deux os temporaux pour fermer la boîte crânienne en arrière.
 Il repose par ses condyles sur la vertèbre atlas, qui est la première vertèbre de la colonne vertébrale. C'est par lui que le crâne repose sur le rachis.
